--- a/docs/assets/disciplinas/LOQ4257.xlsx
+++ b/docs/assets/disciplinas/LOQ4257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer uma visão geral sobre gestão de projetos em uma organização, suas etapas e inter-relação com as demais áreasorganizacionais e sua importância no mundo competitivo dos negócios.</t>
+    <t>5840917 - Fabrício Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Considerações gerais sobre gerenciamento de projetos, Iniciação de projetos, Planejamento e Plano de Gerenciamento,Estrutura de Monitoramento e Avaliação, Execução e Controle.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -106,25 +103,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas. Trabalhos em grupo. Seminários. Palestras. Exercícios em sala de aula.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas Provas com peso de 30% cada uma. Trabalhos em sala de aula com peso de 20% e Trabalho final com peso de 20%</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. PMBOK. Um Guia Do Conhecimento em Gerenciamento de projetos. 5 ed. Project Management Institute. 20122. CLAUSING, D. Total quality development a step by step guide to world class concurrent engineering. New York: ASME Press,1994.3. MEREDITH, J R; MANTEL, S J; WILEY, J. Project Management: a managerial approach. 1995.4. MAXIMIANO, A . C. Administração de projetos, Atlas: São Paulo, 1997.5. SHTUB, A BARD J. F. e GLOBERSON S. Project management, Prentice hall, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,34 +612,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,26 +650,26 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -697,7 +694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -708,28 +705,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4257.xlsx
+++ b/docs/assets/disciplinas/LOQ4257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EP-3</t>
+    <t>EF-7,EP-3</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -119,13 +119,6 @@
   </si>
   <si>
     <t>Prova única</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4203 -  Sistemas Produtivos I  (Requisito fraco)
-</t>
   </si>
 </sst>
 </file>
@@ -481,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,19 +698,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4257.xlsx
+++ b/docs/assets/disciplinas/LOQ4257.xlsx
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
+    <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>

--- a/docs/assets/disciplinas/LOQ4257.xlsx
+++ b/docs/assets/disciplinas/LOQ4257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer uma visão geral sobre gestão de projetos em uma organização, suas etapas e inter-relação com as demais áreasorganizacionais e sua importância no mundo competitivo dos negócios.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide an overview of project management in an organization, its stages and interrelationships with other organizational areasand their importance in the competitive world of business</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide an overview of project management in an organization, its stages and interrelationships with other organizational areasand their importance in the competitive world of business</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Considerações gerais sobre gerenciamento de projetos, Iniciação de projetos, Planejamento e Plano de Gerenciamento,Estrutura de Monitoramento e Avaliação, Execução e Controle.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -103,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas. Trabalhos em grupo. Seminários. Palestras. Exercícios em sala de aula.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas. Trabalhos em grupo. Seminários. Palestras. Exercícios em sala de aula.</t>
+    <t>Duas Provas com peso de 30% cada uma. Trabalhos em sala de aula com peso de 20% e Trabalho final com peso de 20%</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas Provas com peso de 30% cada uma. Trabalhos em sala de aula com peso de 20% e Trabalho final com peso de 20%</t>
+    <t>Prova única</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única</t>
+    <t>1. PMBOK. Um Guia Do Conhecimento em Gerenciamento de projetos. 5 ed. Project Management Institute. 20122. CLAUSING, D. Total quality development a step by step guide to world class concurrent engineering. New York: ASME Press,1994.3. MEREDITH, J R; MANTEL, S J; WILEY, J. Project Management: a managerial approach. 1995.4. MAXIMIANO, A . C. Administração de projetos, Atlas: São Paulo, 1997.5. SHTUB, A BARD J. F. e GLOBERSON S. Project management, Prentice hall, 1994.</t>
   </si>
 </sst>
 </file>
@@ -474,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -605,37 +611,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -643,26 +646,26 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -687,7 +690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -696,6 +699,17 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
